--- a/Sandy-PrácticaDocente/ValleBravo/Resultados con claves_070919.xlsx
+++ b/Sandy-PrácticaDocente/ValleBravo/Resultados con claves_070919.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e83d26919b62b235/Doctorado_SCS/VALLE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\Sandy-PrácticaDocente\ValleBravo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{3B7C3FEC-A1D7-45FE-88D2-74495D30E95E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BC5531AD-CE03-4962-ADC6-40EE78B7B811}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="77">
   <si>
     <t>item_1</t>
   </si>
@@ -253,12 +252,15 @@
   </si>
   <si>
     <t>Yñurrigarro Roel Martina</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,7 +380,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -697,23 +699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7265625" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.7265625" style="3"/>
-    <col min="3" max="3" width="27.26953125" style="5" customWidth="1"/>
-    <col min="4" max="53" width="6.7265625" style="3"/>
-    <col min="54" max="16384" width="6.7265625" style="4"/>
+    <col min="1" max="2" width="6.7109375" style="3"/>
+    <col min="3" max="3" width="27.28515625" style="5" customWidth="1"/>
+    <col min="4" max="53" width="6.7109375" style="3"/>
+    <col min="54" max="16384" width="6.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="11.1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>53</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>53</v>
@@ -3128,7 +3130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>6</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:53" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>6</v>
       </c>
